--- a/Scraper/google_maps_data.xlsx
+++ b/Scraper/google_maps_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,276 +479,2872 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>347 5th Ave suite 1310, New York, NY 10016, United States</t>
+          <t>208-A, Patliputra Colony Rd, next to United Bank of India, Patliputra Colony, Patna, Bihar 800013</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>nexhealth.com</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>345</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4.8</v>
-      </c>
+          <t>meracoaching.com</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>095251 09999</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>40.7362063</v>
+        <v>25.6266864</v>
       </c>
       <c r="H2" t="n">
-        <v>-74.028333</v>
+        <v>84.5362301</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>128 E 71st St Suite #2, New York, NY 10021, United States</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>nyccd.com</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>150</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4.8</v>
-      </c>
+          <t>Above central bank of india, Rewa Road, Bhagwanpur, Bihar 842001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>40.7362063</v>
+        <v>26.1208893</v>
       </c>
       <c r="H3" t="n">
-        <v>-74.028333</v>
+        <v>84.7756509</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>245 E 63rd St #110, New York, NY 10065, United States</t>
+          <t>Pokhraira, Muzaffarpur, Bihar 842001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+1 212-548-3261</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>322</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4.9</v>
-      </c>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>40.7362063</v>
+        <v>26.1208893</v>
       </c>
       <c r="H4" t="n">
-        <v>-74.028333</v>
+        <v>84.7756509</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>133 E 58th St Ste 409, New York, NY 10022, United States</t>
+          <t>Senco Jeweller, s Building, 104 -A3, West Boring Canal Rd, near Bharat Petrol Pump, Anandpuri, Patna, Bihar 800001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>newyorkgeneraldentistry.com</t>
+          <t>business.site</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Q26J+QC New York, USA</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>300</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
+          <t>J489+3X Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>40.7362063</v>
+        <v>25.6152498</v>
       </c>
       <c r="H5" t="n">
-        <v>-74.028333</v>
+        <v>84.5431912</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>216 E 39th St #1, New York, NY 10016, United States</t>
+          <t>1st Floor, Pankaj Market Rd, above Bank of India, Sariyaganj, Muzaffarpur, Bihar 842001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>weence.com</t>
+          <t>geniusclass.in</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>P2XF+8W New York, USA</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>136</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4.4</v>
-      </c>
+          <t>49GQ+H8 Muzaffarpur, Bihar</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>40.7362063</v>
+        <v>26.1264266</v>
       </c>
       <c r="H6" t="n">
-        <v>-74.028333</v>
+        <v>84.81157880000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>274 Madison Ave #1702, New York, NY 10016, United States</t>
+          <t>594W+XFC, Rasulpur Saidpur Bazid, Shahbazpur, Bihar 842004</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>zocdoc.com</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>+1 212-889-8870</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>154</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4.7</v>
-      </c>
+          <t>business.site</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>40.7362063</v>
+        <v>26.1264266</v>
       </c>
       <c r="H7" t="n">
-        <v>-74.028333</v>
+        <v>84.81157880000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12 E 41st St suite 1100, New York, NY 10017, United States</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>modento.io</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>+1 212-685-4730</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>443</v>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
+          <t>New Market Bochahan 5F76+CPF Bochaha - Keotsa Road, Road, Kewtasa, Bihar 843103</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>40.7362063</v>
+        <v>26.1264266</v>
       </c>
       <c r="H8" t="n">
-        <v>-74.028333</v>
+        <v>84.81157880000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10 W 46th St #1401, New York, NY 10036, United States</t>
+          <t>Bihta, Salimpur, Bihar 803202</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>+1 212-759-5595</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>507</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4.9</v>
-      </c>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>40.7362063</v>
+        <v>25.4665661</v>
       </c>
       <c r="H9" t="n">
-        <v>-74.028333</v>
+        <v>84.88460069999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>30 E 40th St #201, New York, NY 10016, United States</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>Centre : 1, Gola Rd, beside State Bank of India, Vip Colony, Jhakhari Mahadev, Goal Road, Patna, Bihar 801503</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>octs.co.in</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>+1 212-889-9999</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>65</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4.9</v>
-      </c>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>40.7362063</v>
+        <v>25.6356017</v>
       </c>
       <c r="H10" t="n">
-        <v>-74.028333</v>
+        <v>84.4780317</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>200 Madison Ave Suite 2201, New York, NY 10016, United States</t>
+          <t>3rd Floor, Disha Comple Opp Patna University Main Gate, Ashok Rajpath Rd, Patna, Bihar 800006</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>zocdoc.com</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>477</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4.9</v>
-      </c>
+          <t>amarjyoticoachingcentre.com</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>098352 55465</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>40.7362063</v>
+        <v>25.6356017</v>
       </c>
       <c r="H11" t="n">
-        <v>-74.028333</v>
+        <v>84.4780317</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>IN GAUTAM BUDHHA PUBLIC SCHOOL BARI PATH, Mahendru, GANDHI CHOWK, Patna, Bihar 800006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>business.site</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>J58F+G2 Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>25.6356017</v>
+      </c>
+      <c r="H12" t="n">
+        <v>84.4780317</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sinha Complex Miscot Lane, Club Rd, near Jubba Sahni Park, Mithanpura, Muzaffarpur, Bihar 842002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>muzaffarpur.motion.ac.in</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>496W+C5 Muzaffarpur, Bihar</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>26.1110935</v>
+      </c>
+      <c r="H13" t="n">
+        <v>84.8186951</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>opp. DPS World School, Bairiya, Paijawa, Patna, Bihar 800007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>sainikexamcoaching.com</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>084269 61534</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>25.5483934</v>
+      </c>
+      <c r="H14" t="n">
+        <v>84.6135699</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MIT, Middle School Rd, Jaiprakash Nagar, Muzaffarpur, Brahmpura, Bihar 842003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>26.1426216</v>
+      </c>
+      <c r="H15" t="n">
+        <v>84.7856896</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Buddha Colony Rd, Sri Krishna Nagar, Buddha Colony, Patna, Bihar 800001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>youtube.com</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>J4CJ+C5 Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>25.6210582</v>
+      </c>
+      <c r="H16" t="n">
+        <v>84.5536288</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>J488+38G, Raghuvir Prabha Palace, Above Bank Of India, Opposite Chunni Lal Mega Mart Near S.k Puri Traffic Post, Boring Rd, Patna, Bihar 800001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>vidyapeethacademy.com</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>25.6210582</v>
+      </c>
+      <c r="H17" t="n">
+        <v>84.5536288</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>south of Anglo Sanskrit school, Balughat Rd, Muzaffarpur, Bihar 842001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>26.1312491</v>
+      </c>
+      <c r="H18" t="n">
+        <v>84.81923740000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>opposite State Bank of India ATM, Postal Park, chauraha, Patna, Bihar 800001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>25.5958764</v>
+      </c>
+      <c r="H19" t="n">
+        <v>84.5646059</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Chakkar Maidan, SHISH MAHAL MUZAFFARPUR Behind D.I.G Residence, Majhaulia Rd, Chhata chowk, Gobarsahi, Muzaffarpur, Bihar 842001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>pearlcoaching.business.site</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>26.1160629</v>
+      </c>
+      <c r="H20" t="n">
+        <v>84.7963773</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Reliance Tower Gandhi Chowk, Mahendru, in front of Sahara India Office, Koiritola, Patna, Bihar 800006</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>mahendras.org</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>J58C+FV Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>25.6161929</v>
+      </c>
+      <c r="H21" t="n">
+        <v>84.5953543</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Ratan Plaza ,Near Mai Asthan ,Damuchak Road, Chhata, Chowk, Muzaffarpur, Bihar 842001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>careerplannerindia.com</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>498G+HW Muzaffarpur, Bihar</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>26.1163867</v>
+      </c>
+      <c r="H22" t="n">
+        <v>84.8004916</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1st Floor, Heera Panna Complex, Boring Rd, opp. Indian Oil Petrol Pump, crossing, Chouraha, Patna, Bihar 800001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>allen.ac.in</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>J479+79 Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>25.6132008</v>
+      </c>
+      <c r="H23" t="n">
+        <v>84.54162119999999</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>7549+4P5, near bank of india grahak seva kendra, Motipur, Ratanpura, Bihar 843111</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>26.2552529</v>
+      </c>
+      <c r="H24" t="n">
+        <v>84.59256910000001</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>First Floor, Bank of India building, near FNS Academy Gur ki Mandi, Arfabad Colony, Patna, Bihar 800007</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>vkicampus.com</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>25.610221</v>
+      </c>
+      <c r="H25" t="n">
+        <v>84.6180639</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2nd Floor, Raghuvir Prabha complex, Boring Rd, above Bank of India, opp. chunni Lal Mega Mart, Anandpuri, Patna, Bihar 800001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>pahaldesign.com</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>099311 58835</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>25.610221</v>
+      </c>
+      <c r="H26" t="n">
+        <v>84.6180639</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ANKURAM, E Boring Canal Rd, near PANCHMUKHI HANUMAN MANDIR, Patna, Bihar 800001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ankuramindia.com</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>J49C+3M Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>25.610221</v>
+      </c>
+      <c r="H27" t="n">
+        <v>84.6180639</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Muhammadpur Pitambara Mandir colony,near Bank of india, Bihar 800007</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>25.610221</v>
+      </c>
+      <c r="H28" t="n">
+        <v>84.6180639</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>J.J. Bhawan, Shahganj East of, Musallahpur Hat, Patna, Bihar 800006</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>25.610221</v>
+      </c>
+      <c r="H29" t="n">
+        <v>84.6180639</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3rd Floor, Pramila Mansion, opposite Chandan Hero Showroom, Kankarbagh, Patna, Bihar 800020</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>chahalacademy.com</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>J43X+CJ Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>25.610221</v>
+      </c>
+      <c r="H30" t="n">
+        <v>84.6180639</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>J488+28V, Raghuvir Prabha Palace, Above Bank Of India, Opposite Chunni Lal Mega Mart, Main Boring Road, Patna, Bihar 800001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>25.610221</v>
+      </c>
+      <c r="H31" t="n">
+        <v>84.6180639</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sai chemistry classes, R.P complex, police check post, Boring Rd, above bank of India, near S.K Puri, Anandpuri, Patna, Bihar 800001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>saimalaeducation.com</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>J488+28 Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>25.610221</v>
+      </c>
+      <c r="H32" t="n">
+        <v>84.6180639</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Shivpuri, Chowk, Anisabad, 02, Shivpuri Rd, Shivpuri, Chitkohra, Patna, Bihar 800002</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>newtimescoachingcentre.blogspot.com</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>H4M2+CM Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>25.610221</v>
+      </c>
+      <c r="H33" t="n">
+        <v>84.6180639</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>J587+RV8, BM Das Rd, near T. Raja High School, Makhania Kuan, Lalbagh, Patna, Bihar 800004</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>25.610221</v>
+      </c>
+      <c r="H34" t="n">
+        <v>84.6180639</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Ajay Gas Agency, SPEAKER CHOWK NEAR L.S COLLEGE, BindaBabu Lane, near Ajay Gas Agency, Naya Tola, Bihar 842001</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>26.1167887</v>
+      </c>
+      <c r="H35" t="n">
+        <v>84.805414</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Garam chowk, near Jayprakash Nagar, Jaiprakash Nagar, Bairia, Muzaffarpur, Bihar 843113</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>business.site</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>49W3+23 Bairia, Bihar</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>26.1167887</v>
+      </c>
+      <c r="H36" t="n">
+        <v>84.805414</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>49J7+MMX, India, asia, earth, solar system, milky way, universe, Brahampura Main Rd, Brahmapura, Muzaffarpur, Bihar 842003</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>26.1167887</v>
+      </c>
+      <c r="H37" t="n">
+        <v>84.805414</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Opposite Patna University Library Ashok Raj Path Patna Bihar 800004 IN, Ashok Rajpath Rd, Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>rajdhanicoachingcenter.com</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>076328 42148</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>25.6178011</v>
+      </c>
+      <c r="H38" t="n">
+        <v>84.5900872</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>301, Hem Plaza, opposite Jagat Trade Center, near Centro Mall, Fraser Road Area, Patna, Bihar 800001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>imsindia.com</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>J46Q+H4 Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>25.6178011</v>
+      </c>
+      <c r="H39" t="n">
+        <v>84.5900872</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Behind Jubba Sahni Park, Lane 1, Miscot Ln, Mithanpura, Muzaffarpur, Bihar 842002</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ibtindia.com</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>496V+FV Muzaffarpur, Bihar</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>26.1112208</v>
+      </c>
+      <c r="H40" t="n">
+        <v>84.81790789999999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>499J+F67, cyberia campus, near, shri vishwakarma mandir, Muzaffarpur, chhata chowk, Muzaffarpur, Bihar, India, 842001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Claim this business</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>26.1112208</v>
+      </c>
+      <c r="H41" t="n">
+        <v>84.81790789999999</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2nd Floor, Reliance trend, Breya Showroom, Anand Market, Kankarbagh Main Rd, Ghrounda, Patna, Bihar 800020</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>smipatna.com</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>J533+7V Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>25.6031314</v>
+      </c>
+      <c r="H42" t="n">
+        <v>84.5778871</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Maripur Main Rd, Tilak Nagar, Muzaffarpur, Bihar 842001</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>careerpower.in</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>49F8+4W Muzaffarpur, Bihar</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>26.1228127</v>
+      </c>
+      <c r="H43" t="n">
+        <v>84.79050169999999</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Aamgola Flyover, opposite of Goberdhan Datsun, Mahammadpur Kazi, Aghoria Bazar, Mithanpura, Muzaffarpur, Bihar 842001</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>26.1228127</v>
+      </c>
+      <c r="H44" t="n">
+        <v>84.79050169999999</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Chitrakut nagar road no 5 Bibiganj, Bhagwanpur, Bihar 842003</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>26.1228127</v>
+      </c>
+      <c r="H45" t="n">
+        <v>84.79050169999999</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>NO. 23, RAJEEV NAGAR, ROAD, 24, MORE, Patna, Bihar 800024</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>25.6350812</v>
+      </c>
+      <c r="H46" t="n">
+        <v>84.5145601</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1st floor, 24/B, S.K. Puri, Boring Rd, next to Bikaner, Sri Krishna Puri, Patna, Bihar 800001</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>scorehighinstitute.com</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>J469+C3 Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>25.6350812</v>
+      </c>
+      <c r="H47" t="n">
+        <v>84.5145601</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Kalambagh Chowk, Road, behind central bank of india, Gannipur, Muzaffarpur, Bihar 842001</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>lawpreptutorialpatna.com</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>496M+HJ Muzaffarpur, Bihar</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>26.1114136</v>
+      </c>
+      <c r="H48" t="n">
+        <v>84.8072734</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>First Floor, House of M, M. Bihari, Sri Niwas Path, beside 9to9 Supermaarket, Bander Bagicha, Fraser Road Area, Patna, Bihar 800001</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>time4education.com</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>J45P+99 Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>25.6084994</v>
+      </c>
+      <c r="H49" t="n">
+        <v>84.5591112</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>304, lllrd Floor, above Reliance Trends Navyug Kamla Business park, E Boring Canal Rd, Patna, Bihar 800001</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>chanakyaiasacademy.com</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>J4CF+MJ Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>25.6084994</v>
+      </c>
+      <c r="H50" t="n">
+        <v>84.5591112</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1st Floor, Yamuna Complex Main Road, Mithanpura Chowk, Bihar 842002</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>centers.aakash.ac.in</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>493X+P7 Muzaffarpur, Bihar</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>26.1042634</v>
+      </c>
+      <c r="H51" t="n">
+        <v>84.82145610000001</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>New Kunj Colony, near NMCH Railway Crossing, Saketpuri, Patna, Bihar 800016</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>deltasuccesspoint.com</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>J53F+9V Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>25.6033914</v>
+      </c>
+      <c r="H52" t="n">
+        <v>84.5979061</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>94, Gandhi Path, North Sri Krishna Puri, Patna, Bihar 800013</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>mentorsedu.com</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>J4F7+C9 Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>25.6033914</v>
+      </c>
+      <c r="H53" t="n">
+        <v>84.5979061</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>AT-TEACHER HOSTEL NO-3 IN QUARTER NO-47 BEHIND PNB KHABRA ROAD, CHOWK, Shivpuri Damuchak, Muzaffarpur, Bihar 842001</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>theindiancoachingclasses.in</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>26.1118864</v>
+      </c>
+      <c r="H54" t="n">
+        <v>84.79818779999999</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>3rd G.V Mall, West Boring Canal Rd, Patna, Bihar 800001</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>077810 05551</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>25.6124469</v>
+      </c>
+      <c r="H55" t="n">
+        <v>84.5413963</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Bhikhana Pahari, Patna, Bihar 800004</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>25.6124469</v>
+      </c>
+      <c r="H56" t="n">
+        <v>84.5413963</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Ishan Aspire, Kalambagh Chowk, adjacent to Bank of Baroda, Pokhraira, Muzaffarpur, Bihar 842002</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>pw.live</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>011 4314 6669</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>26.1128263</v>
+      </c>
+      <c r="H57" t="n">
+        <v>84.8068547</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2nd Floor, Hansraj Complex, Baligarh Garden, Club Rd, Mithanpura, Muzaffarpur, Bihar 842002</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>unacademy.com</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>090318 22415</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>26.1128263</v>
+      </c>
+      <c r="H58" t="n">
+        <v>84.8068547</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Ward no-29, Kalambagh Chowk, near Gurudwara, Gannipur, Muzaffarpur, Bihar 842002</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>luminousclasses.com</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>496M+WH Muzaffarpur, Bihar</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>26.1128263</v>
+      </c>
+      <c r="H59" t="n">
+        <v>84.8068547</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Ramdhanipur, Khemnichak Rd, Nayachak, Patna, Bihar 800016</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>youtube.com</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>H593+V6 Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>25.5696421</v>
+      </c>
+      <c r="H60" t="n">
+        <v>84.5762562</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>West Ramkrishna Nagar, Ramkrishan Nagar, Patna, Bihar 800027</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>25.5696421</v>
+      </c>
+      <c r="H61" t="n">
+        <v>84.5762562</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1st &amp; 2nd floor,Maurya Tower, Cinema Rd, near SBI Bank, Hajipur, Bihar 844101</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>igniteindiaeducation.com</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>25.5696421</v>
+      </c>
+      <c r="H62" t="n">
+        <v>84.5762562</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Sadhugachhi, Shekhpur, Bihar 842001</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>26.1467996</v>
+      </c>
+      <c r="H63" t="n">
+        <v>84.8135271</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Kartar Coaching Complex, Makhania Kuan, Lalbagh, Patna, Bihar 800004</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>kartarcoachingcentre.com</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>25.617087</v>
+      </c>
+      <c r="H64" t="n">
+        <v>84.58408799999999</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Brilliant House, Boring Rd, opp. Krishna Appt, Patna, Bihar 800001</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>brilliantpatna.com</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>J487+M7 Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>25.617087</v>
+      </c>
+      <c r="H65" t="n">
+        <v>84.58408799999999</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Ufraul,chakmaruf UFRAUL, Goraul, Bihar 844118</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>25.617087</v>
+      </c>
+      <c r="H66" t="n">
+        <v>84.58408799999999</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Top Floor, Central Bank of India Building Opposite Anuradha Market, Rewa Road, Bhagwanpur, Bihar 842001</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>facebook.com</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>26.1208028</v>
+      </c>
+      <c r="H67" t="n">
+        <v>84.7710048</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>J364+PVQ, H B Complex, Gola Road Crossing, Bailey Rd, Patna, Bihar 800012</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>eduriseindia.com</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>25.6118427</v>
+      </c>
+      <c r="H68" t="n">
+        <v>84.4804415</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Besides Lemon Tree Hotel, LS Complex, Brajkishore Path, South Gandhi Maidan, Raja Ji Salai, Dujra Diara, Patna, Bihar 800001</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>pw.live</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>074288 90305</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>25.6118427</v>
+      </c>
+      <c r="H69" t="n">
+        <v>84.4804415</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>H5V7+F2R shiv mandir, Madok Tower.......In the straight south 200m from Munna chak(Rajendra Nagar Terminal, near yogipur, Yogipur, Kankarbagh, Bankman Colony, Patna, Bihar 800020</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>25.6118427</v>
+      </c>
+      <c r="H70" t="n">
+        <v>84.4804415</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Kesar Anand Bhawan, Balughat Rd, near Bramha Sthan, Muzaffarpur, Bihar 842001</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>26.1331488</v>
+      </c>
+      <c r="H71" t="n">
+        <v>84.8143331</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1st &amp; 2nd Floor, Sai Mani Orchid Mall, Bailey Rd, near Maurya Path, RPS More, Shri Krishna Puram, More, Patna, Bihar 801503</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>centers.aakash.ac.in</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>J382+W2 Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>25.6172903</v>
+      </c>
+      <c r="H72" t="n">
+        <v>84.47333</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Kishan Cold Storage Gali, near Sai Mandir, Musallahpur Hat, Chak Musallahpur, Campus, Patna, Bihar 800001</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>25.6172903</v>
+      </c>
+      <c r="H73" t="n">
+        <v>84.47333</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>103, Kumar Tower, Boring Rd, crossing, Kidwaipuri, Patna, Bihar 800001</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>perfectionias.com</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>091550 87930</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>25.6172903</v>
+      </c>
+      <c r="H74" t="n">
+        <v>84.47333</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>CP House, Atal Path, off Boring Road, Shivpuri, Patna, Bihar 800023</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>careerplannerindia.com</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>J486+74 Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>25.6172903</v>
+      </c>
+      <c r="H75" t="n">
+        <v>84.47333</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1st floor, Jagdamba Tower, Children's Park Rd, Sri Krishna Puri, Patna, Bihar 800001</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>073609 91122</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>25.6172903</v>
+      </c>
+      <c r="H76" t="n">
+        <v>84.47333</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Hathsarganj, Baskit Nagar, Hajipur, Bihar 844103</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>25.6172903</v>
+      </c>
+      <c r="H77" t="n">
+        <v>84.47333</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Pirmohani near Om steel, near Anand cement store, Patna, Bihar 800003</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>instituterank.com</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>J44X+V3 Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>25.6172903</v>
+      </c>
+      <c r="H78" t="n">
+        <v>84.47333</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>H3MV+C63, Thakur Market, Bank Of India, Golamber, Anisabad, Patna, Bihar 800002</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>aakash.ac.in</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>25.6172903</v>
+      </c>
+      <c r="H79" t="n">
+        <v>84.47333</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Nutan Complex, Main Road, near Krrish Hyundai, Kankarbagh Colony More, Khasmahal, Karbighaiyaa side, Patna, Bihar 800020</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>madeeasy.in</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0612 235 6615</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="n">
+        <v>25.6172903</v>
+      </c>
+      <c r="H80" t="n">
+        <v>84.47333</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>4th floor, Rajeshwar complex, Kankarbagh Main Rd, Rajendra Nagar, Patna, Bihar 800020</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>pw.live</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>070192 43492</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>25.6172903</v>
+      </c>
+      <c r="H81" t="n">
+        <v>84.47333</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Harihar Chambers, G-106, Chandrakanta Appartment Opp:, Boring Rd, Patna, Bihar 800001</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>tuitionindia.in</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>J46C+Q8 Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>25.6172903</v>
+      </c>
+      <c r="H82" t="n">
+        <v>84.47333</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Chintamanpur, Bihar 844111</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>25.6172903</v>
+      </c>
+      <c r="H83" t="n">
+        <v>84.47333</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>X77F+XCQ, Chintamanpur, Bihar 844111</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Claim this business</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>25.6172903</v>
+      </c>
+      <c r="H84" t="n">
+        <v>84.47333</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Gyan Ganga ltd, Vishal Bhawan, Bailey Rd, Saguna More, Kaliket Nagar, Patna, Bihar 801503</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>25.6172903</v>
+      </c>
+      <c r="H85" t="n">
+        <v>84.47333</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Madnani Ln, near city life, Mahammadpur Kazi, Mithanpura, Muzaffarpur, Bihar 842001</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>496X+49 Muzaffarpur, Bihar</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>26.110359</v>
+      </c>
+      <c r="H86" t="n">
+        <v>84.8217152</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Indian coaching center, raghopur, Basantpur, Bihar 854103</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>business.site</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>25.455696</v>
+      </c>
+      <c r="H87" t="n">
+        <v>87.0259789</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Radhapuri, Ganga Nagar Colony, Hapur, Uttar Pradesh 245101</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>28.7354965</v>
+      </c>
+      <c r="H88" t="n">
+        <v>77.20180550000001</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2nd Floor, Ugra Tara Complex, Club Rd, opposite Grand Mall, Mahammadpur Kazi, Mithanpura, Muzaffarpur, Bihar 842002</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>forms.gle</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>496W+2G Muzaffarpur, Bihar</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>26.1100672</v>
+      </c>
+      <c r="H89" t="n">
+        <v>84.81954690000001</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2nd Floor, Hira Panna Jewellers, Boring Rd, opposite Petrol pump, crossing, Anandpuri, Patna, Bihar 800001</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>095551 08888</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>25.6133662</v>
+      </c>
+      <c r="H90" t="n">
+        <v>84.54183980000001</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Raj Complex, E Boring Canal Rd, Kidwaipuri, Patna, Bihar 800001</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>080928 30988</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>25.6133662</v>
+      </c>
+      <c r="H91" t="n">
+        <v>84.54183980000001</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Masood complex, 1, Haroon Nagar, Haroon Colony Sector -II, Phulwari Sharif, Patna, Bihar 801505</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>business.site</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>25.6133662</v>
+      </c>
+      <c r="H92" t="n">
+        <v>84.54183980000001</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>L-2/ 44 P I T COLONY K.V MAIN ROAD, 20, near Dr. Shanti Roy Resident, Kankarbagh, Patna, Bihar 800020</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>business.site</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>H5W5+6X Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>25.6133662</v>
+      </c>
+      <c r="H93" t="n">
+        <v>84.54183980000001</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>488M+99X, Patahi Chowk, Rewa Chowk, Muzaffarpur, Bihar 843113</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>26.1159793</v>
+      </c>
+      <c r="H94" t="n">
+        <v>84.75669069999999</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Belsar, Bihar 844111</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>business.site</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>X6JM+WF Belsar, Bihar</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>26.1159793</v>
+      </c>
+      <c r="H95" t="n">
+        <v>84.75669069999999</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Beside Sipara-bridge, Jayprakash Nagar, Sipara, Patna, Bihar 800001</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>25.5850332</v>
+      </c>
+      <c r="H96" t="n">
+        <v>84.5523634</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>PNB Building, opp. of Doctor's Colony, near Rajendra Nagar Overbridge, Housing Board Colony, Kankarbagh, Patrakar Nagar, Patna, Bihar 800004</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>25.5850332</v>
+      </c>
+      <c r="H97" t="n">
+        <v>84.5523634</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>REWA ROAD, near BANK OF BARODA, Alkapuri Colony, Bishundatpur, Bhagwanpur, Muzaffarpur, Bihar 842001</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>drishtiedi.in</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>49C3+JG Bhagwanpur, Bihar</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>26.1216129</v>
+      </c>
+      <c r="H98" t="n">
+        <v>84.77703169999999</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Opposite St Karens High School, Mandal Niwas, Gola Rd, S. K. Puram, Danapur Nizamat, Patna, Bihar 801503</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>goalinstitute.org</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>J3C4+99 Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>25.6209174</v>
+      </c>
+      <c r="H99" t="n">
+        <v>84.4791463</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1st Floor, Gopal Market, Naya Tola, Patna, Bihar 800004</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>patna-coaching.business.site</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>25.6209174</v>
+      </c>
+      <c r="H100" t="n">
+        <v>84.4791463</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Opp. Tapasya Complex Beside Bank Of India BORINGROAD 2nd Branch, ROAD, Bailey Rd, opposite SHYAMA MANALI APPARTMENT, Jagdeo Path, Phulwari Sharif, Patna, Bihar 800001</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>business.site</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>J488+32 Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>25.6209174</v>
+      </c>
+      <c r="H101" t="n">
+        <v>84.4791463</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Opp. Tapasya Complex Beside Bank Of India BORINGROAD 2nd Branch, ROAD, Bailey Rd, opposite SHYAMA MANALI APPARTMENT, Jagdeo Path, Phulwari Sharif, Patna, Bihar 800001</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>business.site</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>J488+32 Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>25.6209174</v>
+      </c>
+      <c r="H102" t="n">
+        <v>84.4791463</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr"/>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>BARA SUMERA, WARD NO.09, YADAV MUHALLA, Dharampur, Bihar 843113</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>msccshivamsir.business.site</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>38VJ+W9 Dharampur, Bihar</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>26.0948199</v>
+      </c>
+      <c r="H103" t="n">
+        <v>84.75417469999999</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>opposite Big Bazaar mall, near vision +, Mahammadpur Kazi, Mithanpura, Muzaffarpur, Bihar 842002</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>097087 95741</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>26.0948199</v>
+      </c>
+      <c r="H104" t="n">
+        <v>84.75417469999999</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Gola Rd, Ramjaipal Nagar, Danapur Nizamat, Danapur, Patna, Bihar 801503</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>instagram.com</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>J384+8P Danapur, Bihar</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="n">
+        <v>25.6158078</v>
+      </c>
+      <c r="H105" t="n">
+        <v>84.4800568</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr"/>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Nepali Kothi, Opposite Indian Oil Pertol Pump, Boring Rd, near Heera Panna Jewellers, Chauraha, Patna, Bihar 800001</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>britishlingua.com</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>J479+F8 Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="n">
+        <v>25.6158078</v>
+      </c>
+      <c r="H106" t="n">
+        <v>84.4800568</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>opp. Stadium, Rajendra Nagar, Patna, Bihar 800016</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>distincteducation.com</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>J558+33 Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="n">
+        <v>25.6158078</v>
+      </c>
+      <c r="H107" t="n">
+        <v>84.4800568</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>B-58 Near B.D. Public School, Buddha Colony, Patna, Bihar 800001</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>goalinstitute.org</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>J4CH+86 Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="n">
+        <v>25.6158078</v>
+      </c>
+      <c r="H108" t="n">
+        <v>84.4800568</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Club Rd, CPN Colony, Mithapura, Muzaffarpur, Bihar 842002</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>etoosmuzaffarpur.business.site</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>494W+VR Muzaffarpur, Bihar</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="n">
+        <v>26.1072299</v>
+      </c>
+      <c r="H109" t="n">
+        <v>84.82031240000001</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>House No - 17, Boring Rd, Basant Bihar Colony, Anandpuri, Patna, Bihar 800001</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>amclmca.com</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>J488+7W Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="n">
+        <v>25.6156627</v>
+      </c>
+      <c r="H110" t="n">
+        <v>84.5405112</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Bakarganj Bajaja, near Natraj Gali, Patna, Bihar 800004</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>business.site</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="n">
+        <v>25.6156627</v>
+      </c>
+      <c r="H111" t="n">
+        <v>84.5405112</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>495F+R5V, Damuchak, Near Shivpuri Bridge, Muzaffarpur, Bihar 842001</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="n">
+        <v>26.1096225</v>
+      </c>
+      <c r="H112" t="n">
+        <v>84.7961541</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr"/>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Bazar Samiti Behind Of Kela Mandi, Suman, near of R K, Patna, Bihar 800006</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>vidyaeducationgroup.com</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="n">
+        <v>25.6074602</v>
+      </c>
+      <c r="H113" t="n">
+        <v>84.60275919999999</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr"/>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2nd &amp; 3rd Floor, Bank of Baroda Building, Stadium Road, Bazar Samiti, Rajendra Nagar, Patna, Bihar 800016</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="n">
+        <v>25.6074602</v>
+      </c>
+      <c r="H114" t="n">
+        <v>84.60275919999999</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Savita Sadan, N-6, near Astha Lok Hospital, Professor Colony, Jogipur, Kankarbagh, Bankman Colony, Patna, Bihar 800020</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>hinddefenceacademy.com</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>077668 34738</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="n">
+        <v>25.6074602</v>
+      </c>
+      <c r="H115" t="n">
+        <v>84.60275919999999</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Turki, Bihar 844127</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>indeduconsultancy.com</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="n">
+        <v>26.0410632</v>
+      </c>
+      <c r="H116" t="n">
+        <v>84.7868526</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr"/>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1st Floor, Komal Palace, E Boring Canal Rd, opposite Panchmukhi Hanuman Mandir, Sri Krishna Nagar, Kidwaipuri, Patna, Bihar 800001</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>alsias.net</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>082520 02211</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>26.0410632</v>
+      </c>
+      <c r="H117" t="n">
+        <v>84.7868526</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr"/>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>J565+29G, Rd Number 2, Rajendra Nagar, Patna, Bihar 800003</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="n">
+        <v>26.0410632</v>
+      </c>
+      <c r="H118" t="n">
+        <v>84.7868526</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>House No. 25, 1st Floor, Vivekanand Marg, 13, opposite A.N. College, Patna, Bihar 800013</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="n">
+        <v>26.0410632</v>
+      </c>
+      <c r="H119" t="n">
+        <v>84.7868526</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr"/>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Kalwari Bhagwati Asthan, Muzaffarpur, Dhamouli Ramnath East, Bihar 843108</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>youtube.com</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>58WW+3P Muzaffarpur, Bihar</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="n">
+        <v>26.0410632</v>
+      </c>
+      <c r="H120" t="n">
+        <v>84.7868526</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr"/>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Santushti sweets, Sahdev Mahto Marg, lane, Boring Rd, opp. Allahabad Bank, Patna, Bihar 800001</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>gyanias.in</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>062879 63511</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="n">
+        <v>26.0410632</v>
+      </c>
+      <c r="H121" t="n">
+        <v>84.7868526</v>
       </c>
     </row>
   </sheetData>
